--- a/tools/xlsx/BatA系统协议整理.xlsx
+++ b/tools/xlsx/BatA系统协议整理.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\2016-NanoGrid\00-Docments\8-Hardware\ProtocolSummary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mageia/Dropbox/Workspace/meijizhan/tools/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27980" windowHeight="16590"/>
+    <workbookView xWindow="2260" yWindow="2080" windowWidth="27980" windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,20 @@
     <sheet name="设备逻辑参数列表" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="451">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1370,24 +1378,52 @@
   </si>
   <si>
     <t>AvailableSysModuleNum</t>
+  </si>
+  <si>
+    <t>CustomPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomEnergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kWh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomHB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1447,16 +1483,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1466,7 +1502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1536,9 +1572,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1554,7 +1593,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1596,12 +1635,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1631,12 +1670,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1840,31 +1879,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O182"/>
+  <dimension ref="A1:P185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="24.36328125" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" customWidth="1"/>
-    <col min="5" max="5" width="21.1796875" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="12" width="10.1796875" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" customWidth="1"/>
-    <col min="14" max="14" width="13.90625" customWidth="1"/>
-    <col min="15" max="15" width="26.1796875" customWidth="1"/>
+    <col min="11" max="12" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="15" max="15" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1911,150 +1950,99 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="23"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="23"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="23"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="17">
-        <v>9</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="17">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="17">
-        <v>11</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="4">
-        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>273</v>
+        <v>442</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>11</v>
@@ -2069,36 +2057,36 @@
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>274</v>
+        <v>443</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
@@ -2110,36 +2098,36 @@
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="16.5" customHeight="1">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
@@ -2151,31 +2139,33 @@
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>11</v>
@@ -2190,34 +2180,36 @@
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
@@ -2229,36 +2221,36 @@
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
@@ -2270,36 +2262,34 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="17" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
@@ -2311,36 +2301,34 @@
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>280</v>
+      <c r="C12" s="17" t="s">
+        <v>277</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="17">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
@@ -2351,137 +2339,145 @@
         <v>0</v>
       </c>
       <c r="M12" s="4"/>
-      <c r="N12" s="4" t="s">
-        <v>24</v>
+      <c r="N12" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="8">
-        <v>49</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8">
+      <c r="C13" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="17">
+        <v>17</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
         <v>1</v>
       </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4"/>
+      <c r="N13" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="8">
-        <v>50</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8">
+      <c r="C14" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="17">
+        <v>18</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
         <v>1</v>
       </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="8">
-        <v>51</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="C15" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="17">
+        <v>19</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="O15" s="8"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="I15" s="5"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>271</v>
@@ -2491,34 +2487,36 @@
         <v>12</v>
       </c>
       <c r="G16" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L16" s="8">
         <v>0</v>
       </c>
       <c r="M16" s="8"/>
-      <c r="N16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="N16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>271</v>
@@ -2528,34 +2526,36 @@
         <v>12</v>
       </c>
       <c r="G17" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L17" s="8">
         <v>0</v>
       </c>
       <c r="M17" s="8"/>
-      <c r="N17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="N17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>271</v>
@@ -2565,36 +2565,34 @@
         <v>12</v>
       </c>
       <c r="G18" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L18" s="8">
         <v>0</v>
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>70</v>
+      </c>
+      <c r="O18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>271</v>
@@ -2604,243 +2602,239 @@
         <v>12</v>
       </c>
       <c r="G19" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="8">
+        <v>53</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="8"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>17</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="8">
+        <v>54</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8">
         <v>1</v>
       </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="18" t="s">
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O21" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>18</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="8">
+        <v>55</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8">
+        <v>1</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8"/>
+      <c r="N22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="17">
-        <v>99</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4">
-        <v>1</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="O20" s="17"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="17">
-        <v>100</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4">
-        <v>1</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21" s="17"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="17">
-        <v>101</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="L22" s="4">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="4">
-        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="17">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="19">
-        <v>0.1</v>
+      <c r="K23" s="4">
+        <v>1</v>
       </c>
       <c r="L23" s="4">
         <v>0</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="O23" s="17"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>27</v>
+        <v>285</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="17">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="19">
-        <v>0.1</v>
+      <c r="K24" s="4">
+        <v>1</v>
       </c>
       <c r="L24" s="4">
         <v>0</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="O24" s="17"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>28</v>
+        <v>286</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="17">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>11</v>
@@ -2855,31 +2849,31 @@
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="17">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>11</v>
@@ -2894,31 +2888,31 @@
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="19" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>289</v>
+        <v>27</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>270</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="17">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>11</v>
@@ -2933,31 +2927,31 @@
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="19" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>270</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="17">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>11</v>
@@ -2965,149 +2959,155 @@
       <c r="I28" s="5"/>
       <c r="J28" s="4"/>
       <c r="K28" s="19">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L28" s="4">
         <v>0</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="19" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>301</v>
+      <c r="C29" s="17" t="s">
+        <v>288</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>270</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="17">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4">
-        <v>1</v>
+      <c r="K29" s="19">
+        <v>0.1</v>
       </c>
       <c r="L29" s="4">
         <v>0</v>
       </c>
       <c r="M29" s="4"/>
-      <c r="N29" s="4" t="s">
-        <v>46</v>
+      <c r="N29" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>290</v>
+      <c r="C30" s="17" t="s">
+        <v>289</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>270</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="F30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="17">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="4">
-        <v>1</v>
+      <c r="K30" s="19">
+        <v>0.1</v>
       </c>
       <c r="L30" s="4">
         <v>0</v>
       </c>
       <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="N30" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>291</v>
+        <v>19</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E31" s="4"/>
+        <v>270</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="F31" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="17">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4">
+      <c r="K31" s="19">
         <v>1</v>
       </c>
       <c r="L31" s="4">
         <v>0</v>
       </c>
       <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="N31" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>270</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>212</v>
+      </c>
       <c r="F32" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="17">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>11</v>
@@ -3121,20 +3121,20 @@
         <v>0</v>
       </c>
       <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="N32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>269</v>
@@ -3144,241 +3144,235 @@
         <v>12</v>
       </c>
       <c r="G33" s="17">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="7">
-        <v>0.1</v>
+      <c r="K33" s="4">
+        <v>1</v>
       </c>
       <c r="L33" s="4">
         <v>0</v>
       </c>
       <c r="M33" s="4"/>
-      <c r="N33" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="N33" s="4"/>
+      <c r="O33" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>29</v>
+      <c r="C34" s="17" t="s">
+        <v>291</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>213</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="E34" s="4"/>
       <c r="F34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="17">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="7">
-        <v>0.1</v>
+      <c r="K34" s="4">
+        <v>1</v>
       </c>
       <c r="L34" s="4">
         <v>0</v>
       </c>
       <c r="M34" s="4"/>
-      <c r="N34" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="N34" s="4"/>
+      <c r="O34" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>214</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="17">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I35" s="5"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="7">
-        <v>0.1</v>
+      <c r="K35" s="4">
+        <v>1</v>
       </c>
       <c r="L35" s="4">
         <v>0</v>
       </c>
       <c r="M35" s="4"/>
-      <c r="N35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="N35" s="4"/>
+      <c r="O35" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>215</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="E36" s="4"/>
       <c r="F36" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="17">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="7"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="7">
         <v>0.1</v>
       </c>
       <c r="L36" s="4">
         <v>0</v>
       </c>
-      <c r="M36" s="7"/>
+      <c r="M36" s="4"/>
       <c r="N36" s="7" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>270</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="17">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="7"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="7">
         <v>0.1</v>
       </c>
       <c r="L37" s="4">
         <v>0</v>
       </c>
-      <c r="M37" s="7"/>
+      <c r="M37" s="4"/>
       <c r="N37" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>270</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="17">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="7"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="7">
         <v>0.1</v>
       </c>
       <c r="L38" s="4">
         <v>0</v>
       </c>
-      <c r="M38" s="7"/>
+      <c r="M38" s="4"/>
       <c r="N38" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>270</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="17">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>11</v>
@@ -3393,29 +3387,31 @@
       </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>294</v>
+        <v>32</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="E40" s="4"/>
+        <v>270</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="F40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="17">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>11</v>
@@ -3429,30 +3425,32 @@
         <v>0</v>
       </c>
       <c r="M40" s="7"/>
-      <c r="N40" s="19" t="s">
-        <v>23</v>
+      <c r="N40" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>295</v>
+      <c r="C41" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="E41" s="4"/>
+        <v>270</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="F41" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="17">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>11</v>
@@ -3466,30 +3464,32 @@
         <v>0</v>
       </c>
       <c r="M41" s="7"/>
-      <c r="N41" s="19" t="s">
-        <v>24</v>
+      <c r="N41" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>296</v>
+        <v>34</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="E42" s="4"/>
+        <v>270</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="F42" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="17">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>11</v>
@@ -3508,144 +3508,138 @@
       </c>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
+        <v>39</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="17">
+        <v>123</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="20"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7"/>
+      <c r="N43" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>40</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="17">
+        <v>124</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7"/>
+      <c r="N44" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>41</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="17">
+        <v>125</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C43" s="19" t="s">
+      <c r="B46" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E43" s="4" t="s">
+      <c r="D46" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="17">
+      <c r="F46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="17">
         <v>1088</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="5"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="L43" s="4">
-        <v>0</v>
-      </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="17">
-        <v>1089</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="L44" s="4">
-        <v>0</v>
-      </c>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="4">
-        <v>44</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="17">
-        <v>1090</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="L45" s="4">
-        <v>0</v>
-      </c>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O45" s="4"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="17">
-        <v>1091</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>11</v>
@@ -3664,27 +3658,27 @@
       </c>
       <c r="O46" s="4"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G47" s="17">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>11</v>
@@ -3703,27 +3697,27 @@
       </c>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="17">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>11</v>
@@ -3742,27 +3736,27 @@
       </c>
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="17">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>11</v>
@@ -3781,27 +3775,27 @@
       </c>
       <c r="O49" s="4"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="17">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>11</v>
@@ -3820,27 +3814,27 @@
       </c>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="17">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>11</v>
@@ -3859,27 +3853,27 @@
       </c>
       <c r="O51" s="4"/>
     </row>
-    <row r="52" spans="1:15" s="6" customFormat="1">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="17">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>11</v>
@@ -3898,27 +3892,27 @@
       </c>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="1:15" s="6" customFormat="1">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="17">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>11</v>
@@ -3937,27 +3931,27 @@
       </c>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="1:15" s="6" customFormat="1">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="17">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>11</v>
@@ -3976,27 +3970,27 @@
       </c>
       <c r="O54" s="4"/>
     </row>
-    <row r="55" spans="1:15" s="6" customFormat="1">
+    <row r="55" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G55" s="17">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>11</v>
@@ -4015,27 +4009,27 @@
       </c>
       <c r="O55" s="4"/>
     </row>
-    <row r="56" spans="1:15" s="6" customFormat="1">
+    <row r="56" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="17">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>11</v>
@@ -4054,27 +4048,27 @@
       </c>
       <c r="O56" s="4"/>
     </row>
-    <row r="57" spans="1:15" s="6" customFormat="1">
+    <row r="57" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="17">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>11</v>
@@ -4093,27 +4087,27 @@
       </c>
       <c r="O57" s="4"/>
     </row>
-    <row r="58" spans="1:15" s="6" customFormat="1">
+    <row r="58" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G58" s="17">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>11</v>
@@ -4132,27 +4126,27 @@
       </c>
       <c r="O58" s="4"/>
     </row>
-    <row r="59" spans="1:15" s="6" customFormat="1">
+    <row r="59" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G59" s="17">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>11</v>
@@ -4171,27 +4165,27 @@
       </c>
       <c r="O59" s="4"/>
     </row>
-    <row r="60" spans="1:15" s="6" customFormat="1">
+    <row r="60" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G60" s="17">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>11</v>
@@ -4210,27 +4204,27 @@
       </c>
       <c r="O60" s="4"/>
     </row>
-    <row r="61" spans="1:15" s="6" customFormat="1">
+    <row r="61" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G61" s="17">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>11</v>
@@ -4249,27 +4243,27 @@
       </c>
       <c r="O61" s="4"/>
     </row>
-    <row r="62" spans="1:15" s="6" customFormat="1">
+    <row r="62" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G62" s="17">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>11</v>
@@ -4288,27 +4282,27 @@
       </c>
       <c r="O62" s="4"/>
     </row>
-    <row r="63" spans="1:15" s="6" customFormat="1">
+    <row r="63" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G63" s="17">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>11</v>
@@ -4327,27 +4321,27 @@
       </c>
       <c r="O63" s="4"/>
     </row>
-    <row r="64" spans="1:15" s="6" customFormat="1">
+    <row r="64" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G64" s="17">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>11</v>
@@ -4366,27 +4360,27 @@
       </c>
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="1:15" s="6" customFormat="1">
+    <row r="65" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="17">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>11</v>
@@ -4405,27 +4399,27 @@
       </c>
       <c r="O65" s="4"/>
     </row>
-    <row r="66" spans="1:15" s="6" customFormat="1">
+    <row r="66" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G66" s="17">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>11</v>
@@ -4444,27 +4438,27 @@
       </c>
       <c r="O66" s="4"/>
     </row>
-    <row r="67" spans="1:15" s="6" customFormat="1">
+    <row r="67" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G67" s="17">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>11</v>
@@ -4483,27 +4477,27 @@
       </c>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G68" s="17">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>11</v>
@@ -4522,27 +4516,27 @@
       </c>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G69" s="17">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>11</v>
@@ -4561,27 +4555,27 @@
       </c>
       <c r="O69" s="4"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G70" s="17">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>11</v>
@@ -4600,27 +4594,27 @@
       </c>
       <c r="O70" s="4"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G71" s="17">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>11</v>
@@ -4639,27 +4633,27 @@
       </c>
       <c r="O71" s="4"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G72" s="17">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>11</v>
@@ -4678,27 +4672,27 @@
       </c>
       <c r="O72" s="4"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G73" s="17">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>11</v>
@@ -4717,27 +4711,27 @@
       </c>
       <c r="O73" s="4"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G74" s="17">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>11</v>
@@ -4756,27 +4750,27 @@
       </c>
       <c r="O74" s="4"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G75" s="17">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>11</v>
@@ -4795,27 +4789,27 @@
       </c>
       <c r="O75" s="4"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G76" s="17">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>11</v>
@@ -4834,27 +4828,27 @@
       </c>
       <c r="O76" s="4"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D77" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G77" s="17">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>11</v>
@@ -4873,27 +4867,27 @@
       </c>
       <c r="O77" s="4"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G78" s="17">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>11</v>
@@ -4912,27 +4906,27 @@
       </c>
       <c r="O78" s="4"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G79" s="17">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>11</v>
@@ -4951,27 +4945,27 @@
       </c>
       <c r="O79" s="4"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G80" s="17">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>11</v>
@@ -4990,27 +4984,27 @@
       </c>
       <c r="O80" s="4"/>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G81" s="17">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>11</v>
@@ -5029,27 +5023,27 @@
       </c>
       <c r="O81" s="4"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F82" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G82" s="17">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>11</v>
@@ -5068,27 +5062,27 @@
       </c>
       <c r="O82" s="4"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="17">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>11</v>
@@ -5107,27 +5101,27 @@
       </c>
       <c r="O83" s="4"/>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G84" s="17">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>11</v>
@@ -5146,27 +5140,27 @@
       </c>
       <c r="O84" s="4"/>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F85" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G85" s="17">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>11</v>
@@ -5185,27 +5179,27 @@
       </c>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G86" s="17">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>11</v>
@@ -5224,27 +5218,27 @@
       </c>
       <c r="O86" s="4"/>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G87" s="17">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>11</v>
@@ -5263,27 +5257,27 @@
       </c>
       <c r="O87" s="4"/>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G88" s="17">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>11</v>
@@ -5302,27 +5296,27 @@
       </c>
       <c r="O88" s="4"/>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G89" s="17">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>11</v>
@@ -5341,27 +5335,27 @@
       </c>
       <c r="O89" s="4"/>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F90" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G90" s="17">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>11</v>
@@ -5380,27 +5374,27 @@
       </c>
       <c r="O90" s="4"/>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G91" s="17">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>11</v>
@@ -5419,27 +5413,27 @@
       </c>
       <c r="O91" s="4"/>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G92" s="17">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>11</v>
@@ -5458,27 +5452,27 @@
       </c>
       <c r="O92" s="4"/>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G93" s="17">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>11</v>
@@ -5497,27 +5491,27 @@
       </c>
       <c r="O93" s="4"/>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D94" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G94" s="17">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>11</v>
@@ -5536,27 +5530,27 @@
       </c>
       <c r="O94" s="4"/>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G95" s="17">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>11</v>
@@ -5575,27 +5569,27 @@
       </c>
       <c r="O95" s="4"/>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="17">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>11</v>
@@ -5614,27 +5608,27 @@
       </c>
       <c r="O96" s="4"/>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G97" s="17">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>11</v>
@@ -5653,27 +5647,27 @@
       </c>
       <c r="O97" s="4"/>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C98" s="19" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D98" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G98" s="17">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>11</v>
@@ -5692,27 +5686,27 @@
       </c>
       <c r="O98" s="4"/>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G99" s="17">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>11</v>
@@ -5731,27 +5725,27 @@
       </c>
       <c r="O99" s="4"/>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G100" s="17">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>11</v>
@@ -5770,27 +5764,27 @@
       </c>
       <c r="O100" s="4"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D101" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G101" s="17">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>11</v>
@@ -5809,27 +5803,27 @@
       </c>
       <c r="O101" s="4"/>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C102" s="19" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="17">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>11</v>
@@ -5848,27 +5842,27 @@
       </c>
       <c r="O102" s="4"/>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C103" s="19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D103" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G103" s="17">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>11</v>
@@ -5887,27 +5881,27 @@
       </c>
       <c r="O103" s="4"/>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C104" s="19" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D104" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G104" s="17">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>11</v>
@@ -5926,27 +5920,27 @@
       </c>
       <c r="O104" s="4"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D105" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G105" s="17">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>11</v>
@@ -5965,27 +5959,27 @@
       </c>
       <c r="O105" s="4"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C106" s="19" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G106" s="17">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>11</v>
@@ -6004,27 +5998,27 @@
       </c>
       <c r="O106" s="4"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D107" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G107" s="17">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="H107" s="4" t="s">
         <v>11</v>
@@ -6043,27 +6037,27 @@
       </c>
       <c r="O107" s="4"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D108" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G108" s="17">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>11</v>
@@ -6082,27 +6076,27 @@
       </c>
       <c r="O108" s="4"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D109" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G109" s="17">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>11</v>
@@ -6121,27 +6115,27 @@
       </c>
       <c r="O109" s="4"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G110" s="17">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>11</v>
@@ -6160,27 +6154,27 @@
       </c>
       <c r="O110" s="4"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D111" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G111" s="17">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>11</v>
@@ -6199,27 +6193,27 @@
       </c>
       <c r="O111" s="4"/>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G112" s="17">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>11</v>
@@ -6238,27 +6232,27 @@
       </c>
       <c r="O112" s="4"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D113" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G113" s="17">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>11</v>
@@ -6277,27 +6271,27 @@
       </c>
       <c r="O113" s="4"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D114" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G114" s="17">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>11</v>
@@ -6316,27 +6310,27 @@
       </c>
       <c r="O114" s="4"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G115" s="17">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="H115" s="4" t="s">
         <v>11</v>
@@ -6355,27 +6349,27 @@
       </c>
       <c r="O115" s="4"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G116" s="17">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>11</v>
@@ -6394,27 +6388,27 @@
       </c>
       <c r="O116" s="4"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C117" s="19" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G117" s="17">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>11</v>
@@ -6433,27 +6427,27 @@
       </c>
       <c r="O117" s="4"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G118" s="17">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>11</v>
@@ -6472,27 +6466,27 @@
       </c>
       <c r="O118" s="4"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G119" s="17">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>11</v>
@@ -6511,27 +6505,27 @@
       </c>
       <c r="O119" s="4"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C120" s="19" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G120" s="17">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>11</v>
@@ -6550,27 +6544,27 @@
       </c>
       <c r="O120" s="4"/>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C121" s="19" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D121" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F121" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G121" s="17">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="H121" s="4" t="s">
         <v>11</v>
@@ -6589,27 +6583,27 @@
       </c>
       <c r="O121" s="4"/>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D122" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G122" s="17">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>11</v>
@@ -6628,27 +6622,27 @@
       </c>
       <c r="O122" s="4"/>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D123" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G123" s="17">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="H123" s="4" t="s">
         <v>11</v>
@@ -6667,27 +6661,27 @@
       </c>
       <c r="O123" s="4"/>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F124" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G124" s="17">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>11</v>
@@ -6706,27 +6700,27 @@
       </c>
       <c r="O124" s="4"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F125" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G125" s="17">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="H125" s="4" t="s">
         <v>11</v>
@@ -6745,27 +6739,27 @@
       </c>
       <c r="O125" s="4"/>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D126" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G126" s="17">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>11</v>
@@ -6784,27 +6778,27 @@
       </c>
       <c r="O126" s="4"/>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D127" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F127" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G127" s="17">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="H127" s="4" t="s">
         <v>11</v>
@@ -6823,27 +6817,27 @@
       </c>
       <c r="O127" s="4"/>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F128" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G128" s="17">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="H128" s="4" t="s">
         <v>11</v>
@@ -6862,27 +6856,27 @@
       </c>
       <c r="O128" s="4"/>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D129" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F129" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G129" s="17">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="H129" s="4" t="s">
         <v>11</v>
@@ -6901,27 +6895,27 @@
       </c>
       <c r="O129" s="4"/>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D130" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F130" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G130" s="17">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="H130" s="4" t="s">
         <v>11</v>
@@ -6940,27 +6934,27 @@
       </c>
       <c r="O130" s="4"/>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D131" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F131" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G131" s="17">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="H131" s="4" t="s">
         <v>11</v>
@@ -6979,27 +6973,27 @@
       </c>
       <c r="O131" s="4"/>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F132" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G132" s="17">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="H132" s="4" t="s">
         <v>11</v>
@@ -7018,27 +7012,27 @@
       </c>
       <c r="O132" s="4"/>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D133" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G133" s="17">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="H133" s="4" t="s">
         <v>11</v>
@@ -7057,27 +7051,27 @@
       </c>
       <c r="O133" s="4"/>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D134" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F134" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G134" s="17">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="H134" s="4" t="s">
         <v>11</v>
@@ -7096,27 +7090,27 @@
       </c>
       <c r="O134" s="4"/>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D135" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F135" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G135" s="17">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="H135" s="4" t="s">
         <v>11</v>
@@ -7135,27 +7129,27 @@
       </c>
       <c r="O135" s="4"/>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D136" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F136" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G136" s="17">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>11</v>
@@ -7174,27 +7168,27 @@
       </c>
       <c r="O136" s="4"/>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D137" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G137" s="17">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="H137" s="4" t="s">
         <v>11</v>
@@ -7213,27 +7207,27 @@
       </c>
       <c r="O137" s="4"/>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D138" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G138" s="17">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>11</v>
@@ -7252,27 +7246,27 @@
       </c>
       <c r="O138" s="4"/>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G139" s="17">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="H139" s="4" t="s">
         <v>11</v>
@@ -7291,27 +7285,27 @@
       </c>
       <c r="O139" s="4"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G140" s="17">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="H140" s="4" t="s">
         <v>11</v>
@@ -7330,27 +7324,27 @@
       </c>
       <c r="O140" s="4"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D141" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G141" s="17">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="H141" s="4" t="s">
         <v>11</v>
@@ -7369,27 +7363,27 @@
       </c>
       <c r="O141" s="4"/>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D142" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G142" s="17">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="H142" s="4" t="s">
         <v>11</v>
@@ -7408,27 +7402,27 @@
       </c>
       <c r="O142" s="4"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D143" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G143" s="17">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>11</v>
@@ -7447,27 +7441,27 @@
       </c>
       <c r="O143" s="4"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G144" s="17">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>11</v>
@@ -7486,27 +7480,27 @@
       </c>
       <c r="O144" s="4"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G145" s="17">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="H145" s="4" t="s">
         <v>11</v>
@@ -7525,27 +7519,27 @@
       </c>
       <c r="O145" s="4"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D146" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F146" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G146" s="17">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>11</v>
@@ -7564,27 +7558,27 @@
       </c>
       <c r="O146" s="4"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D147" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F147" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G147" s="17">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>11</v>
@@ -7603,27 +7597,27 @@
       </c>
       <c r="O147" s="4"/>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D148" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F148" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G148" s="17">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="H148" s="4" t="s">
         <v>11</v>
@@ -7642,27 +7636,27 @@
       </c>
       <c r="O148" s="4"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F149" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G149" s="17">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="H149" s="4" t="s">
         <v>11</v>
@@ -7681,27 +7675,27 @@
       </c>
       <c r="O149" s="4"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F150" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G150" s="17">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="H150" s="4" t="s">
         <v>11</v>
@@ -7720,27 +7714,27 @@
       </c>
       <c r="O150" s="4"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D151" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G151" s="17">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>11</v>
@@ -7759,27 +7753,27 @@
       </c>
       <c r="O151" s="4"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D152" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G152" s="17">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>11</v>
@@ -7798,27 +7792,27 @@
       </c>
       <c r="O152" s="4"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D153" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F153" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G153" s="17">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="H153" s="4" t="s">
         <v>11</v>
@@ -7837,27 +7831,27 @@
       </c>
       <c r="O153" s="4"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D154" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G154" s="17">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="H154" s="4" t="s">
         <v>11</v>
@@ -7876,162 +7870,150 @@
       </c>
       <c r="O154" s="4"/>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G155" s="17">
-        <v>1536</v>
+        <v>1197</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I155" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="J155" s="4">
-        <v>8</v>
-      </c>
+      <c r="I155" s="5"/>
+      <c r="J155" s="4"/>
       <c r="K155" s="4">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="L155" s="4">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="M155" s="4"/>
       <c r="N155" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O155" s="4"/>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D156" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G156" s="17">
-        <v>1536</v>
+        <v>1198</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I156" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="J156" s="4">
-        <v>8</v>
-      </c>
+      <c r="I156" s="5"/>
+      <c r="J156" s="4"/>
       <c r="K156" s="4">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="L156" s="4">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="M156" s="4"/>
       <c r="N156" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O156" s="4"/>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D157" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G157" s="17">
-        <v>1537</v>
+        <v>1199</v>
       </c>
       <c r="H157" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I157" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="J157" s="4">
-        <v>8</v>
-      </c>
+      <c r="I157" s="5"/>
+      <c r="J157" s="4"/>
       <c r="K157" s="4">
-        <v>1</v>
+        <v>1E-3</v>
       </c>
       <c r="L157" s="4">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="M157" s="4"/>
       <c r="N157" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O157" s="4"/>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D158" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G158" s="17">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H158" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J158" s="4">
         <v>8</v>
@@ -8048,33 +8030,33 @@
       </c>
       <c r="O158" s="4"/>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G159" s="17">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="H159" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J159" s="4">
         <v>8</v>
@@ -8091,33 +8073,33 @@
       </c>
       <c r="O159" s="4"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G160" s="17">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H160" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J160" s="4">
         <v>8</v>
@@ -8134,33 +8116,33 @@
       </c>
       <c r="O160" s="4"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G161" s="17">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="H161" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J161" s="4">
         <v>8</v>
@@ -8177,33 +8159,33 @@
       </c>
       <c r="O161" s="4"/>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C162" s="19" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G162" s="17">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H162" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J162" s="4">
         <v>8</v>
@@ -8220,33 +8202,33 @@
       </c>
       <c r="O162" s="4"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C163" s="19" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D163" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G163" s="17">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="H163" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J163" s="4">
         <v>8</v>
@@ -8263,33 +8245,33 @@
       </c>
       <c r="O163" s="4"/>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C164" s="19" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G164" s="17">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H164" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J164" s="4">
         <v>8</v>
@@ -8306,33 +8288,33 @@
       </c>
       <c r="O164" s="4"/>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C165" s="19" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D165" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G165" s="17">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="H165" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J165" s="4">
         <v>8</v>
@@ -8349,33 +8331,33 @@
       </c>
       <c r="O165" s="4"/>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C166" s="19" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G166" s="17">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H166" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J166" s="4">
         <v>8</v>
@@ -8392,33 +8374,33 @@
       </c>
       <c r="O166" s="4"/>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G167" s="17">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J167" s="4">
         <v>8</v>
@@ -8435,33 +8417,33 @@
       </c>
       <c r="O167" s="4"/>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D168" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G168" s="17">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J168" s="4">
         <v>8</v>
@@ -8478,33 +8460,33 @@
       </c>
       <c r="O168" s="4"/>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G169" s="17">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I169" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J169" s="4">
         <v>8</v>
@@ -8521,33 +8503,33 @@
       </c>
       <c r="O169" s="4"/>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D170" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G170" s="17">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H170" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J170" s="4">
         <v>8</v>
@@ -8564,33 +8546,33 @@
       </c>
       <c r="O170" s="4"/>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G171" s="17">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="H171" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J171" s="4">
         <v>8</v>
@@ -8607,33 +8589,33 @@
       </c>
       <c r="O171" s="4"/>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C172" s="19" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G172" s="17">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H172" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J172" s="4">
         <v>8</v>
@@ -8650,33 +8632,33 @@
       </c>
       <c r="O172" s="4"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C173" s="19" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G173" s="17">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="H173" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J173" s="4">
         <v>8</v>
@@ -8693,33 +8675,33 @@
       </c>
       <c r="O173" s="4"/>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C174" s="19" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G174" s="17">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H174" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J174" s="4">
         <v>8</v>
@@ -8736,33 +8718,33 @@
       </c>
       <c r="O174" s="4"/>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C175" s="19" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G175" s="17">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="H175" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J175" s="4">
         <v>8</v>
@@ -8779,33 +8761,33 @@
       </c>
       <c r="O175" s="4"/>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D176" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G176" s="17">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H176" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J176" s="4">
         <v>8</v>
@@ -8820,35 +8802,35 @@
       <c r="N176" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O176" s="7"/>
-    </row>
-    <row r="177" spans="1:15">
+      <c r="O176" s="4"/>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D177" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G177" s="17">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="H177" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I177" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J177" s="4">
         <v>8</v>
@@ -8863,35 +8845,35 @@
       <c r="N177" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O177" s="7"/>
-    </row>
-    <row r="178" spans="1:15">
+      <c r="O177" s="4"/>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F178" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G178" s="17">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H178" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J178" s="4">
         <v>8</v>
@@ -8906,35 +8888,35 @@
       <c r="N178" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O178" s="7"/>
-    </row>
-    <row r="179" spans="1:15">
+      <c r="O178" s="4"/>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D179" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F179" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G179" s="17">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="H179" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J179" s="4">
         <v>8</v>
@@ -8951,33 +8933,33 @@
       </c>
       <c r="O179" s="7"/>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F180" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G180" s="17">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H180" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J180" s="4">
         <v>8</v>
@@ -8994,33 +8976,33 @@
       </c>
       <c r="O180" s="7"/>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G181" s="17">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="H181" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I181" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J181" s="4">
         <v>8</v>
@@ -9037,33 +9019,33 @@
       </c>
       <c r="O181" s="7"/>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C182" s="19" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>269</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F182" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G182" s="17">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H182" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I182" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J182" s="4">
         <v>8</v>
@@ -9079,6 +9061,135 @@
         <v>46</v>
       </c>
       <c r="O182" s="7"/>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A183" s="4">
+        <v>179</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C183" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G183" s="17">
+        <v>1548</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I183" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J183" s="4">
+        <v>8</v>
+      </c>
+      <c r="K183" s="4">
+        <v>1</v>
+      </c>
+      <c r="L183" s="4">
+        <v>-50</v>
+      </c>
+      <c r="M183" s="4"/>
+      <c r="N183" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O183" s="7"/>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A184" s="4">
+        <v>180</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184" s="17">
+        <v>1549</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I184" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J184" s="4">
+        <v>8</v>
+      </c>
+      <c r="K184" s="4">
+        <v>1</v>
+      </c>
+      <c r="L184" s="4">
+        <v>-50</v>
+      </c>
+      <c r="M184" s="4"/>
+      <c r="N184" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O184" s="7"/>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A185" s="4">
+        <v>181</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G185" s="17">
+        <v>1549</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I185" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J185" s="4">
+        <v>8</v>
+      </c>
+      <c r="K185" s="4">
+        <v>1</v>
+      </c>
+      <c r="L185" s="4">
+        <v>-50</v>
+      </c>
+      <c r="M185" s="4"/>
+      <c r="N185" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O185" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9086,10 +9197,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
       <formula1>"Bool,I8,U8,I16,U16,float,DBL,I64,U64"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M24 M43:M1048576 M31:M35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M34:M38 M46:M1048576 M1:M27">
       <formula1>"Big Endian,Littile Endian"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D182">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D185">
       <formula1>"hide,num,line,bar,pie"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9106,16 +9217,16 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>235</v>
       </c>
@@ -9135,7 +9246,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>47</v>
       </c>
@@ -9156,7 +9267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>47</v>
       </c>
@@ -9177,7 +9288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>47</v>
       </c>
@@ -9198,7 +9309,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>234</v>
       </c>
@@ -9219,7 +9330,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>234</v>
       </c>
@@ -9240,7 +9351,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>234</v>
       </c>
@@ -9276,20 +9387,20 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" customWidth="1"/>
-    <col min="10" max="10" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -9321,7 +9432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -9351,7 +9462,7 @@
       </c>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -9381,7 +9492,7 @@
       </c>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -9409,7 +9520,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -9437,7 +9548,7 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -9465,7 +9576,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -9495,7 +9606,7 @@
       </c>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -9545,18 +9656,18 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.1796875" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="20.36328125" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" customWidth="1"/>
-    <col min="7" max="7" width="25.6328125" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9582,7 +9693,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5">
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -9606,7 +9717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -9630,7 +9741,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -9654,7 +9765,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -9678,7 +9789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -9702,7 +9813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -9724,7 +9835,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -9746,7 +9857,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -9768,7 +9879,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -9792,7 +9903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -9817,6 +9928,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9829,13 +9941,13 @@
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>266</v>
       </c>
@@ -9856,6 +9968,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
